--- a/django_vote/ml/comment_df.xlsx
+++ b/django_vote/ml/comment_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mochidatakahiro/dev/django/vote/django_vote/ml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5056C-BB45-E34E-82C9-22B5F9D921DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2997B844-6904-0246-A750-B48E9BCEA141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16400" xr2:uid="{B7CF7F65-F06C-BE48-A631-4F7C22F802EC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{B7CF7F65-F06C-BE48-A631-4F7C22F802EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>member_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sentence_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>sentence</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>comment_id</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -156,6 +144,14 @@
   </si>
   <si>
     <t>私は、自由民主党及び公明党を代表し、ただいま議題となりました平成三十一年度地方財政計画、地方交付税法等の一部を改正する法律案、地方税法等の一部を改正する法律案、特別法人事業税及び特別法人事業譲与税に関する法律案及び森林環境税及び森林環境譲与税に関する法律案について、安倍総理及び石田総務大臣に質問をさせていただきます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>serial_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -224,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +234,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,155 +553,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309D1174-366B-8342-AC23-60FC7AF5A647}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E2:E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="409.6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1234567</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1234567</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6">
-      <c r="A2">
-        <v>1234567</v>
-      </c>
-      <c r="B2">
-        <v>12345</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:5" ht="409.6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1234568</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1234568</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1234569</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6">
-      <c r="A3">
-        <v>1234567</v>
-      </c>
-      <c r="B3">
-        <v>12346</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    <row r="7" spans="1:5" ht="409.6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1234569</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.6">
-      <c r="A4">
-        <v>1234568</v>
-      </c>
-      <c r="B4">
-        <v>12347</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="409.6">
-      <c r="A5">
-        <v>1234568</v>
-      </c>
-      <c r="B5">
-        <v>12348</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="409.6">
-      <c r="A6">
-        <v>1234569</v>
-      </c>
-      <c r="B6">
-        <v>12349</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="409.6">
-      <c r="A7">
-        <v>1234569</v>
-      </c>
-      <c r="B7">
-        <v>12350</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
